--- a/Desktop/Amir/Borang baru Edited/ICPMS/PKKK HMS 003A  003B 003C 003D Laporan IQC ICPMS UAT 1 April 2024.xlsx
+++ b/Desktop/Amir/Borang baru Edited/ICPMS/PKKK HMS 003A  003B 003C 003D Laporan IQC ICPMS UAT 1 April 2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\Borang baru Edited\ICPMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Borang baru Edited\ICPMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A314BD52-3630-401E-92F3-F29B8CDA904D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC39D634-66F4-4111-BF18-3E70CBD0FAAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormTitan" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="49">
   <si>
     <t xml:space="preserve">Unit Analisis Tradisional </t>
   </si>
@@ -348,6 +348,12 @@
   <si>
     <t>Header</t>
   </si>
+  <si>
+    <t>IQC POW A (ppb):</t>
+  </si>
+  <si>
+    <t>IQC POW B (ppb):</t>
+  </si>
 </sst>
 </file>
 
@@ -358,11 +364,18 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-14409]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -707,7 +720,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -721,370 +734,300 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1456,11 +1399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C054161-7400-4DF4-8F73-C680D197AEE2}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1469,208 +1412,268 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2">
       <c r="A2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="31"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="30"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="18" t="s">
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="108"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="32" t="s">
+      <c r="B5" s="26"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="33"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="19" t="s">
+      <c r="B6" s="31"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="28"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="19" t="s">
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="28"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="19" t="s">
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="28"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="108"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="B10" s="21"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="35"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="19" t="s">
+      <c r="B13" s="32"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="19" t="s">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="19" t="s">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="28"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="20" t="s">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="108"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="36" t="s">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="37"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="19" t="s">
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="19" t="s">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="28"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="19" t="s">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="28"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="25" t="s">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="108"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="38" t="s">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="39"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A22" s="19" t="s">
+      <c r="B27" s="34"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="28"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="19" t="s">
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="28"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="19" t="s">
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="28"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A25" s="20" t="s">
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="30" t="s">
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="21"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="31"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="19" t="s">
+      <c r="B34" s="30"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="29"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A28" s="20" t="s">
+      <c r="B35" s="27"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B5">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>LEN(B3)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B10">
-    <cfRule type="expression" dxfId="21" priority="5">
+  <conditionalFormatting sqref="B7:B12">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>LEN(B7)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B15">
-    <cfRule type="expression" dxfId="20" priority="4">
-      <formula>LEN(B12)=0</formula>
+  <conditionalFormatting sqref="B14:B17">
+    <cfRule type="expression" dxfId="25" priority="7">
+      <formula>LEN(B14)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B20">
-    <cfRule type="expression" dxfId="19" priority="3">
-      <formula>LEN(B17)=0</formula>
+  <conditionalFormatting sqref="B21:B24">
+    <cfRule type="expression" dxfId="24" priority="6">
+      <formula>LEN(B21)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B25">
-    <cfRule type="expression" dxfId="18" priority="2">
-      <formula>LEN(B22)=0</formula>
+  <conditionalFormatting sqref="B28:B31">
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>LEN(B28)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>LEN(B27)=0</formula>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="expression" dxfId="22" priority="4">
+      <formula>LEN(B35)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:B19">
+    <cfRule type="expression" dxfId="21" priority="3">
+      <formula>LEN(B18)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B26">
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>LEN(B25)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B33">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>LEN(B32)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1679,11 +1682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B35531-A15D-46D7-A7ED-90C4BE8AB3C7}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1692,273 +1695,353 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2">
       <c r="A2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="31"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="30"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="26"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="25"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="18" t="s">
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="32" t="s">
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="33"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="19" t="s">
+      <c r="B6" s="31"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="26"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="19" t="s">
+      <c r="B7" s="21"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="26"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="19" t="s">
+      <c r="B8" s="21"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="26"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="26"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="B10" s="21"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="35"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="19" t="s">
+      <c r="B13" s="32"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="26"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="19" t="s">
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="26"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="19" t="s">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="26"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="20" t="s">
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="26"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="36" t="s">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="37"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="19" t="s">
+      <c r="B20" s="33"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="26"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="19" t="s">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="26"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="19" t="s">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="26"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="25" t="s">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="26"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="38" t="s">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="39"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A22" s="19" t="s">
+      <c r="B27" s="34"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="26"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A23" s="19" t="s">
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="26"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A24" s="19" t="s">
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="26"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A25" s="20" t="s">
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="26"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A26" s="30" t="s">
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="21"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="31"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A27" s="19" t="s">
+      <c r="B34" s="30"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="27"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A28" s="20" t="s">
+      <c r="B35" s="29"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>LEN(B3)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>LEN(B4)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>LEN(B5)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>LEN(B7)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>LEN(B8)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>LEN(B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>LEN(B9)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>LEN(B12)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>LEN(B13)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>LEN(B14)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>LEN(B15)=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>LEN(B16)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>LEN(B17)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>LEN(B18)=0</formula>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>LEN(B21)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>LEN(B19)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>LEN(B20)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B25">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>LEN(B22)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>LEN(B27)=0</formula>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>LEN(B23)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>LEN(B24)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B31">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>LEN(B28)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>LEN(B35)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{9CE9DA8B-E761-4E00-8373-8D919B094CB6}">
+            <xm:f>LEN(FormTitan!B12)=0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B11:B12 B18:B19 B25:B26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{67BAF21B-884B-49AB-9DF1-352654CEE5A1}">
+            <xm:f>LEN(FormTitan!B33)=0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B32:B33</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:G32"/>
+    <sheetView view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1974,95 +2057,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="82">
         <f>FormTitan!B3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="78">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="66">
         <f>FormTitan!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="78">
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="66">
         <f>FormTitan!B5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="76"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="22" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="35">
         <f>FormTitan!B7</f>
         <v>0</v>
       </c>
-      <c r="H6" s="84"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2072,7 +2155,7 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2081,114 +2164,120 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="64">
         <f>FormTitan!B8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="64">
         <f>FormTitan!B10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="64">
+        <f>FormTitan!B11</f>
+        <v>0</v>
+      </c>
       <c r="E8" s="57">
         <f>D8-C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="59" t="e">
+      <c r="F8" s="53" t="e">
         <f>((D8-C8)/1000)/(2.5/B8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="50" t="e">
+      <c r="H8" s="73"/>
+      <c r="I8" s="48" t="e">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="58"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="81" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="64">
         <f>FormTitan!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="64">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="64">
+        <f>FormTitan!B12</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="57">
         <f>D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="59" t="e">
+      <c r="F10" s="53" t="e">
         <f>((D10-C10)/1000)/(2.5/B10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="58"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="53" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="23" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="83">
-        <f>FormTitan!B12</f>
+      <c r="G12" s="35">
+        <f>FormTitan!B14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="84"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2207,114 +2296,120 @@
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="40">
-        <f>FormTitan!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="40">
+      <c r="B14" s="64">
         <f>FormTitan!B15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="C14" s="64">
+        <f>FormTitan!B17</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="64">
+        <f>FormTitan!B18</f>
+        <v>0</v>
+      </c>
       <c r="E14" s="57">
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="59" t="e">
+      <c r="F14" s="53" t="e">
         <f>((D14-C14)/1000)/(0.15/B14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="50" t="e">
+      <c r="H14" s="56"/>
+      <c r="I14" s="48" t="e">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="56"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="58"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="53" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="40">
-        <f>FormTitan!B14</f>
+      <c r="B16" s="64">
+        <f>FormTitan!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="64">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="64">
+        <f>FormTitan!B19</f>
+        <v>0</v>
+      </c>
       <c r="E16" s="57">
         <f>D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="59" t="e">
+      <c r="F16" s="53" t="e">
         <f>((D16-C16)/1000)/(0.15/B16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="51"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="58"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="53" t="s">
+      <c r="F17" s="54"/>
+      <c r="G17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="54"/>
-      <c r="I17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="23" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="83">
-        <f>FormTitan!B17</f>
+      <c r="G18" s="35">
+        <f>FormTitan!B21</f>
         <v>0</v>
       </c>
-      <c r="H18" s="84"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2333,114 +2428,120 @@
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="40">
-        <f>FormTitan!B18</f>
+      <c r="B20" s="64">
+        <f>FormTitan!B22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="40">
-        <f>FormTitan!B20</f>
+      <c r="C20" s="64">
+        <f>FormTitan!B24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="64">
+        <f>FormTitan!B25</f>
+        <v>0</v>
+      </c>
       <c r="E20" s="57">
         <f>D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="59" t="e">
+      <c r="F20" s="53" t="e">
         <f>((D20-C20)/1000)/(0.25/B20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="50" t="e">
+      <c r="H20" s="56"/>
+      <c r="I20" s="48" t="e">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="58"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="53" t="s">
+      <c r="F21" s="54"/>
+      <c r="G21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="54"/>
-      <c r="I21" s="51"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="40">
-        <f>FormTitan!B19</f>
+      <c r="B22" s="64">
+        <f>FormTitan!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="64">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="64">
+        <f>FormTitan!B26</f>
+        <v>0</v>
+      </c>
       <c r="E22" s="57">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="59" t="e">
+      <c r="F22" s="53" t="e">
         <f>((D22-C22)/1000)/(0.25/B22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="51"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="58"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="53" t="s">
+      <c r="F23" s="54"/>
+      <c r="G23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="50"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="23" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="83">
-        <f>FormTitan!B17</f>
+      <c r="G24" s="35">
+        <f>FormTitan!B28</f>
         <v>0</v>
       </c>
-      <c r="H24" s="84"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
@@ -2459,97 +2560,103 @@
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="47"/>
       <c r="I25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="40">
-        <f>FormTitan!B18</f>
+      <c r="B26" s="64">
+        <f>FormTitan!B22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="40">
-        <f>FormTitan!B20</f>
+      <c r="C26" s="64">
+        <f>FormTitan!B31</f>
         <v>0</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="64">
+        <f>FormTitan!B32</f>
+        <v>0</v>
+      </c>
       <c r="E26" s="57">
         <f>D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="59" t="e">
+      <c r="F26" s="53" t="e">
         <f>((D26-C26)/1000)/(5/B26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="50" t="e">
+      <c r="H26" s="56"/>
+      <c r="I26" s="48" t="e">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="58"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="53" t="s">
+      <c r="F27" s="54"/>
+      <c r="G27" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="54"/>
-      <c r="I27" s="51"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="40">
-        <f>FormTitan!B19</f>
+      <c r="B28" s="64">
+        <f>FormTitan!B23</f>
         <v>0</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="64">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="64">
+        <f>FormTitan!B33</f>
+        <v>0</v>
+      </c>
       <c r="E28" s="57">
         <f>D28-C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="59" t="e">
+      <c r="F28" s="53" t="e">
         <f>((D28-C28)/1000)/(5/B28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="51"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
       <c r="E29" s="58"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="53" t="s">
+      <c r="F29" s="54"/>
+      <c r="G29" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="50"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1">
       <c r="A30" s="13"/>
@@ -2563,58 +2670,58 @@
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="85">
-        <f>FormTitan!B27</f>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="37">
+        <f>FormTitan!B35</f>
         <v>0</v>
       </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="89">
-        <f>FormTitan!B28</f>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="41">
+        <f>FormTitan!B36</f>
         <v>0</v>
       </c>
-      <c r="I31" s="90"/>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="92"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="47"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="81"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="6"/>
@@ -13203,6 +13310,83 @@
     <protectedRange sqref="D3" name="Range1"/>
   </protectedRanges>
   <mergeCells count="93">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:I34"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G18:H18"/>
@@ -13219,83 +13403,6 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="E33:I34"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -13307,11 +13414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13329,95 +13436,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="78">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="66">
         <f>FormGH!B3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="78">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="66">
         <f>FormGH!B4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="78">
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="66">
         <f>FormGH!B5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="76"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="22" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="35">
         <f>FormGH!B7</f>
         <v>0</v>
       </c>
-      <c r="H6" s="84"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
@@ -13436,80 +13543,86 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="64">
         <f>FormGH!B8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="64">
         <f>FormGH!B10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="40"/>
+      <c r="D8" s="64">
+        <f>FormGH!B11</f>
+        <v>0</v>
+      </c>
       <c r="E8" s="100">
         <f>D8-C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="59" t="e">
+      <c r="F8" s="53" t="e">
         <f>((D8-C8)/1000)/(7.5/B8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="55" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="99"/>
-      <c r="I8" s="50" t="e">
+      <c r="I8" s="48" t="e">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1">
       <c r="A9" s="96"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="98"/>
       <c r="F9" s="98"/>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="51" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="97"/>
       <c r="I9" s="95"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="64">
         <f>FormGH!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="64">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="64">
+        <f>FormGH!B12</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="100">
         <f>D10-C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="59" t="e">
+      <c r="F10" s="53" t="e">
         <f>((D10-C10)/1000)/(7.5/B10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="55" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="99"/>
@@ -13517,33 +13630,33 @@
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
       <c r="A11" s="96"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="98"/>
       <c r="F11" s="98"/>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="51" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="97"/>
       <c r="I11" s="96"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="23" t="s">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="83">
-        <f>FormGH!B12</f>
+      <c r="G12" s="35">
+        <f>FormGH!B14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="84"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
@@ -13562,80 +13675,86 @@
       <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="40">
-        <f>FormGH!B13</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="40">
+      <c r="B14" s="64">
         <f>FormGH!B15</f>
         <v>0</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="C14" s="64">
+        <f>FormGH!B17</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="64">
+        <f>FormGH!B18</f>
+        <v>0</v>
+      </c>
       <c r="E14" s="100">
         <f>D14-C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="59" t="e">
+      <c r="F14" s="53" t="e">
         <f>((D14-C14)/1000)/(0.45/B14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="55" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="99"/>
-      <c r="I14" s="50" t="e">
+      <c r="I14" s="48" t="e">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="96"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="94"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="98"/>
       <c r="F15" s="98"/>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="51" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="97"/>
       <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="40">
-        <f>FormGH!B14</f>
+      <c r="B16" s="64">
+        <f>FormGH!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="64">
         <f>C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="64">
+        <f>FormGH!B19</f>
+        <v>0</v>
+      </c>
       <c r="E16" s="100">
         <f>D16-C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="59" t="e">
+      <c r="F16" s="53" t="e">
         <f>((D16-C16)/1000)/(0.45/B16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="55" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="99"/>
@@ -13643,33 +13762,33 @@
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1">
       <c r="A17" s="96"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="98"/>
       <c r="F17" s="98"/>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="51" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="97"/>
       <c r="I17" s="96"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="23" t="s">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="102">
-        <f>FormGH!B17</f>
+      <c r="G18" s="88">
+        <f>FormGH!B21</f>
         <v>0</v>
       </c>
-      <c r="H18" s="103"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -13688,80 +13807,86 @@
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="101" t="s">
+      <c r="F19" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="40">
-        <f>FormGH!B18</f>
+      <c r="B20" s="64">
+        <f>FormGH!B22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="40">
-        <f>FormGH!B20</f>
+      <c r="C20" s="64">
+        <f>FormGH!B24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="64">
+        <f>FormGH!B25</f>
+        <v>0</v>
+      </c>
       <c r="E20" s="57">
         <f>D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="59" t="e">
+      <c r="F20" s="53" t="e">
         <f>((D20-C20)/1000)/(0.75/B20)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="55" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="99"/>
-      <c r="I20" s="50" t="e">
+      <c r="I20" s="48" t="e">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1">
       <c r="A21" s="96"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="96"/>
       <c r="F21" s="98"/>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="51" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="97"/>
       <c r="I21" s="95"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="40">
-        <f>FormGH!B19</f>
+      <c r="B22" s="64">
+        <f>FormGH!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="64">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="64">
+        <f>FormGH!B26</f>
+        <v>0</v>
+      </c>
       <c r="E22" s="57">
         <f>D22-C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="59" t="e">
+      <c r="F22" s="53" t="e">
         <f>((D22-C22)/1000)/(0.75/B22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="55" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="99"/>
@@ -13769,33 +13894,33 @@
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1">
       <c r="A23" s="96"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="96"/>
       <c r="F23" s="98"/>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="51" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="97"/>
       <c r="I23" s="96"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="23" t="s">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="83">
-        <f>FormGH!B22</f>
+      <c r="G24" s="35">
+        <f>FormGH!B28</f>
         <v>0</v>
       </c>
-      <c r="H24" s="84"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
@@ -13814,80 +13939,86 @@
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="101" t="s">
+      <c r="F25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="40">
-        <f>FormGH!B23</f>
+      <c r="B26" s="64">
+        <f>FormGH!B29</f>
         <v>0</v>
       </c>
-      <c r="C26" s="40">
-        <f>FormGH!B25</f>
+      <c r="C26" s="64">
+        <f>FormGH!B31</f>
         <v>0</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="64">
+        <f>FormGH!B32</f>
+        <v>0</v>
+      </c>
       <c r="E26" s="57">
         <f>D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="59" t="e">
+      <c r="F26" s="53" t="e">
         <f>((D26-C26)/1000)/(15/B26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="55" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="99"/>
-      <c r="I26" s="50" t="e">
+      <c r="I26" s="48" t="e">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1">
       <c r="A27" s="96"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="96"/>
       <c r="F27" s="98"/>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="51" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="97"/>
       <c r="I27" s="95"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="40">
-        <f>FormGH!B24</f>
+      <c r="B28" s="64">
+        <f>FormGH!B30</f>
         <v>0</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="64">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="64">
+        <f>FormGH!B33</f>
+        <v>0</v>
+      </c>
       <c r="E28" s="57">
         <f>D28-C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="59" t="e">
+      <c r="F28" s="53" t="e">
         <f>((D28-C28)/1000)/(15/B28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="55" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="99"/>
@@ -13895,70 +14026,70 @@
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1">
       <c r="A29" s="96"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="94"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="96"/>
       <c r="F29" s="98"/>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="51" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="97"/>
       <c r="I29" s="96"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="104">
-        <f>FormGH!B27</f>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="90">
+        <f>FormGH!B35</f>
         <v>0</v>
       </c>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="89">
-        <f>FormGH!B28</f>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="41">
+        <f>FormGH!B36</f>
         <v>0</v>
       </c>
-      <c r="I30" s="90"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="92"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="78"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="47"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="81"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="6"/>
@@ -24544,6 +24675,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:I33"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G18:H18"/>
@@ -24560,83 +24768,6 @@
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:I33"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
